--- a/Documentation.xlsx
+++ b/Documentation.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17571"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17766"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
   <sheets>
     <sheet name="Controls" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="66">
   <si>
     <t>Fully implemented</t>
   </si>
@@ -169,9 +169,6 @@
     <t>Camera Drive</t>
   </si>
   <si>
-    <t>driveStraight()</t>
-  </si>
-  <si>
     <t>GripPipeline</t>
   </si>
   <si>
@@ -184,10 +181,43 @@
     <t>Gyro</t>
   </si>
   <si>
-    <t>m_gryo</t>
-  </si>
-  <si>
     <t>Roborio I2C</t>
+  </si>
+  <si>
+    <t>NO LONGER IMPLEMENTED</t>
+  </si>
+  <si>
+    <t>Gyro Turn</t>
+  </si>
+  <si>
+    <t>GyroTurn(double angle, double timeout)</t>
+  </si>
+  <si>
+    <t>PIDStraight(double timeSecs)</t>
+  </si>
+  <si>
+    <t>Driving</t>
+  </si>
+  <si>
+    <t>Rope Climbing</t>
+  </si>
+  <si>
+    <t>Sginaling Pilots</t>
+  </si>
+  <si>
+    <t>Driver Camera</t>
+  </si>
+  <si>
+    <t>gryo</t>
+  </si>
+  <si>
+    <t>Autonomous Use</t>
+  </si>
+  <si>
+    <t>Controlled Turning</t>
+  </si>
+  <si>
+    <t>Straight Drive</t>
   </si>
 </sst>
 </file>
@@ -267,7 +297,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
@@ -282,6 +312,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -564,8 +595,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M32"/>
   <sheetViews>
-    <sheetView topLeftCell="A6" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F23" sqref="F23"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -622,13 +653,13 @@
         <v>13</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="M5" s="2" t="s">
         <v>1</v>
@@ -638,15 +669,6 @@
       <c r="A6" t="s">
         <v>14</v>
       </c>
-      <c r="B6" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>28</v>
-      </c>
       <c r="M6" s="3" t="s">
         <v>2</v>
       </c>
@@ -655,14 +677,14 @@
       <c r="A7">
         <v>3</v>
       </c>
-      <c r="B7" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>30</v>
+      <c r="B7" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>28</v>
       </c>
       <c r="M7" s="4" t="s">
         <v>3</v>
@@ -672,6 +694,15 @@
       <c r="A8">
         <v>4</v>
       </c>
+      <c r="B8" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>28</v>
+      </c>
       <c r="M8" s="5" t="s">
         <v>4</v>
       </c>
@@ -680,13 +711,13 @@
       <c r="A9">
         <v>5</v>
       </c>
-      <c r="B9" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C9" s="2" t="s">
+      <c r="B9" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C9" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D9" s="2" t="s">
+      <c r="D9" s="1" t="s">
         <v>28</v>
       </c>
       <c r="M9" s="6" t="s">
@@ -697,13 +728,13 @@
       <c r="A10">
         <v>6</v>
       </c>
-      <c r="B10" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="C10" s="2" t="s">
+      <c r="B10" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C10" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D10" s="2" t="s">
+      <c r="D10" s="1" t="s">
         <v>28</v>
       </c>
     </row>
@@ -771,59 +802,59 @@
         <v>13</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>14</v>
       </c>
-      <c r="B22" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="C22" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="D22" s="1" t="s">
-        <v>28</v>
-      </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>3</v>
       </c>
-      <c r="B23" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="C23" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="D23" s="2" t="s">
-        <v>30</v>
+      <c r="B23" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>4</v>
       </c>
+      <c r="B24" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>5</v>
       </c>
-      <c r="B25" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C25" s="2" t="s">
+      <c r="B25" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C25" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D25" s="2" t="s">
+      <c r="D25" s="1" t="s">
         <v>28</v>
       </c>
     </row>
@@ -831,13 +862,13 @@
       <c r="A26">
         <v>6</v>
       </c>
-      <c r="B26" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="C26" s="2" t="s">
+      <c r="B26" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C26" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D26" s="2" t="s">
+      <c r="D26" s="1" t="s">
         <v>28</v>
       </c>
     </row>
@@ -879,17 +910,18 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J13"/>
+  <dimension ref="A1:J14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C12" sqref="A12:C12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="24.140625" customWidth="1"/>
-    <col min="2" max="2" width="19.140625" customWidth="1"/>
+    <col min="2" max="2" width="37.7109375" customWidth="1"/>
     <col min="3" max="3" width="15.42578125" customWidth="1"/>
+    <col min="4" max="4" width="27.42578125" customWidth="1"/>
     <col min="10" max="10" width="18.42578125" customWidth="1"/>
   </cols>
   <sheetData>
@@ -924,6 +956,9 @@
       <c r="C3" s="1" t="s">
         <v>43</v>
       </c>
+      <c r="D3" s="1" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
@@ -935,30 +970,39 @@
       <c r="C4" s="1" t="s">
         <v>44</v>
       </c>
+      <c r="D4" s="1" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
+      <c r="A5" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B5" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="C5" s="1" t="s">
         <v>45</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>59</v>
       </c>
       <c r="J5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
+      <c r="A6" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="B6" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="C6" s="1" t="s">
         <v>30</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>60</v>
       </c>
       <c r="J6" s="2" t="s">
         <v>1</v>
@@ -974,6 +1018,9 @@
       <c r="C7" s="1" t="s">
         <v>46</v>
       </c>
+      <c r="D7" s="1" t="s">
+        <v>61</v>
+      </c>
       <c r="J7" s="3" t="s">
         <v>2</v>
       </c>
@@ -988,19 +1035,25 @@
       <c r="C8" s="1" t="s">
         <v>46</v>
       </c>
+      <c r="D8" s="1" t="s">
+        <v>61</v>
+      </c>
       <c r="J8" s="4" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="C9" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="B9" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>55</v>
+      <c r="D9" s="1" t="s">
+        <v>63</v>
       </c>
       <c r="J9" s="5" t="s">
         <v>4</v>
@@ -1015,39 +1068,64 @@
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A11" s="1" t="s">
+      <c r="A11" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="J11" s="6"/>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="B11" s="1" t="s">
+      <c r="B12" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A13" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="B13" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="C11" s="1" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A12" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="B12" s="4" t="s">
+      <c r="C13" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="D13" s="6" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A14" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="B14" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="C12" s="4" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A13" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="B13" s="5" t="s">
+      <c r="C14" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="C13" s="5" t="s">
-        <v>52</v>
+      <c r="D14" s="6" t="s">
+        <v>54</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>